--- a/数据字典模板.xlsx
+++ b/数据字典模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="93">
   <si>
     <t>数据字典-学校论坛</t>
   </si>
@@ -178,6 +178,12 @@
     <t>回复时间</t>
   </si>
   <si>
+    <t>RPower</t>
+  </si>
+  <si>
+    <t>回复阅读权限</t>
+  </si>
+  <si>
     <t>Pid</t>
   </si>
   <si>
@@ -221,6 +227,12 @@
   </si>
   <si>
     <t>帖子阅读量</t>
+  </si>
+  <si>
+    <t>PPower</t>
+  </si>
+  <si>
+    <t>帖子阅读权限</t>
   </si>
   <si>
     <t>消息表</t>
@@ -290,8 +302,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -336,7 +348,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,135 +490,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -500,187 +512,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,45 +852,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,7 +875,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,6 +911,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,11 +939,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,10 +959,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,133 +971,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1523,8 +1535,8 @@
   <sheetPr/>
   <dimension ref="B2:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1886,11 +1898,19 @@
       </c>
     </row>
     <row r="29" ht="17.25" spans="2:6">
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="B29" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="F29" s="17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="30" ht="17.25" spans="2:6">
       <c r="B30" s="16"/>
@@ -1927,7 +1947,7 @@
     </row>
     <row r="33" ht="17.25" spans="2:6">
       <c r="B33" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>16</v>
@@ -1937,12 +1957,12 @@
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="2:6">
       <c r="B34" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>16</v>
@@ -1952,12 +1972,12 @@
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="2:6">
       <c r="B35" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>49</v>
@@ -1967,12 +1987,12 @@
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="2:6">
       <c r="B36" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>16</v>
@@ -1982,27 +2002,27 @@
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="2:6">
       <c r="B37" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="2:6">
       <c r="B38" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>16</v>
@@ -2012,12 +2032,12 @@
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="2:6">
       <c r="B39" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>39</v>
@@ -2029,19 +2049,27 @@
         <v>0</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" spans="2:6">
+      <c r="B40" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="41" ht="17.25" spans="5:5">
       <c r="E41" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" ht="17.25" spans="2:6">
@@ -2063,7 +2091,7 @@
     </row>
     <row r="43" ht="17.25" spans="2:6">
       <c r="B43" s="16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>16</v>
@@ -2073,27 +2101,27 @@
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="2:6">
       <c r="B44" s="16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" ht="17.25" spans="2:6">
       <c r="B45" s="16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>16</v>
@@ -2103,12 +2131,12 @@
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" ht="17.25" spans="2:6">
       <c r="B46" s="16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>16</v>
@@ -2118,22 +2146,22 @@
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" ht="17.25" spans="2:6">
       <c r="B47" s="16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" ht="17.25" spans="5:5">
@@ -2160,7 +2188,7 @@
     </row>
     <row r="51" ht="17.25" spans="2:6">
       <c r="B51" s="16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>16</v>
@@ -2170,12 +2198,12 @@
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" ht="17.25" spans="2:6">
       <c r="B52" s="16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>16</v>
@@ -2185,12 +2213,12 @@
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" ht="17.25" spans="5:5">
       <c r="E54" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" ht="17.25" spans="2:6">
@@ -2212,7 +2240,7 @@
     </row>
     <row r="56" ht="17.25" spans="2:6">
       <c r="B56" s="16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>16</v>
@@ -2222,12 +2250,12 @@
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" ht="17.25" spans="2:6">
       <c r="B57" s="16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>16</v>
@@ -2237,7 +2265,7 @@
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/数据字典模板.xlsx
+++ b/数据字典模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="87">
   <si>
     <t>数据字典-学校论坛</t>
   </si>
@@ -139,6 +139,12 @@
     <t>用户权限</t>
   </si>
   <si>
+    <t>URole</t>
+  </si>
+  <si>
+    <t>用户角色</t>
+  </si>
+  <si>
     <t>回复表（Reply）</t>
   </si>
   <si>
@@ -269,30 +275,6 @@
   </si>
   <si>
     <t>消息内容</t>
-  </si>
-  <si>
-    <t>AId</t>
-  </si>
-  <si>
-    <t>管理员id，主键</t>
-  </si>
-  <si>
-    <t>AUId</t>
-  </si>
-  <si>
-    <t>用户id，外键</t>
-  </si>
-  <si>
-    <t>版主表</t>
-  </si>
-  <si>
-    <t>BId</t>
-  </si>
-  <si>
-    <t>版主id，主键</t>
-  </si>
-  <si>
-    <t>BUId</t>
   </si>
 </sst>
 </file>
@@ -301,8 +283,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -347,6 +329,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -354,6 +366,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -370,37 +414,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,39 +438,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,9 +452,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,14 +472,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -512,13 +494,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,169 +548,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,6 +834,71 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,43 +921,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,46 +935,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -971,137 +953,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1150,9 +1132,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1533,10 +1512,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F57"/>
+  <dimension ref="B2:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1793,21 +1772,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+    <row r="21" ht="17.25" spans="2:6">
+      <c r="B21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" ht="17.25" spans="2:6">
-      <c r="B22" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="B22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" ht="17.25" spans="2:6">
       <c r="B23" s="14"/>
@@ -1826,7 +1811,7 @@
     </row>
     <row r="24" ht="17.25" spans="2:6">
       <c r="B24" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>16</v>
@@ -1836,12 +1821,12 @@
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="2:6">
       <c r="B25" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>16</v>
@@ -1851,12 +1836,12 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="2:6">
       <c r="B26" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>16</v>
@@ -1866,40 +1851,40 @@
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="2:6">
       <c r="B27" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="2:6">
       <c r="B28" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="2:6">
       <c r="B29" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>39</v>
@@ -1909,7 +1894,7 @@
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="2:6">
@@ -1920,13 +1905,13 @@
       <c r="F30" s="17"/>
     </row>
     <row r="31" ht="17.25" spans="2:6">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" ht="17.25" spans="2:6">
       <c r="B32" s="14" t="s">
@@ -1947,7 +1932,7 @@
     </row>
     <row r="33" ht="17.25" spans="2:6">
       <c r="B33" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>16</v>
@@ -1957,12 +1942,12 @@
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="2:6">
       <c r="B34" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>16</v>
@@ -1972,27 +1957,27 @@
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="2:6">
       <c r="B35" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="2:6">
       <c r="B36" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>16</v>
@@ -2002,27 +1987,27 @@
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="2:6">
       <c r="B37" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="2:6">
       <c r="B38" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>16</v>
@@ -2032,12 +2017,12 @@
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="2:6">
       <c r="B39" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>39</v>
@@ -2049,12 +2034,12 @@
         <v>0</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="2:6">
       <c r="B40" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>39</v>
@@ -2064,12 +2049,12 @@
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" ht="17.25" spans="5:5">
       <c r="E41" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" ht="17.25" spans="2:6">
@@ -2091,7 +2076,7 @@
     </row>
     <row r="43" ht="17.25" spans="2:6">
       <c r="B43" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>16</v>
@@ -2101,27 +2086,27 @@
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="2:6">
       <c r="B44" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" ht="17.25" spans="2:6">
       <c r="B45" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>16</v>
@@ -2131,12 +2116,12 @@
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" ht="17.25" spans="2:6">
       <c r="B46" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>16</v>
@@ -2146,126 +2131,22 @@
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" ht="17.25" spans="2:6">
       <c r="B47" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" ht="17.25" spans="5:5">
-      <c r="E49" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" ht="17.25" spans="2:6">
-      <c r="B50" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" ht="17.25" spans="2:6">
-      <c r="B51" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="52" ht="17.25" spans="2:6">
-      <c r="B52" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" ht="17.25" spans="5:5">
-      <c r="E54" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" ht="17.25" spans="2:6">
-      <c r="B55" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" ht="17.25" spans="2:6">
-      <c r="B56" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" ht="17.25" spans="2:6">
-      <c r="B57" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
